--- a/Input data/Task_list_E_12.xlsx
+++ b/Input data/Task_list_E_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C6642-F5C4-854A-BD60-E3050EB454B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E965DC-D358-CE4C-A095-40AF6FEDD436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="16">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>unloading time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C04_CMD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5680,7 +5684,7 @@
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H126"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5743,7 +5747,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
